--- a/biology/Botanique/Maladies_de_la_laitue/Maladies_de_la_laitue.xlsx
+++ b/biology/Botanique/Maladies_de_la_laitue/Maladies_de_la_laitue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les maladies de la laitue (Lactuca sativa) sont très nombreuses et d'origine diverses. Il s'agit soit de maladies parasitaires causées par des agents pathogènes variés (bactéries et mycoplasmes, champignons et protistes, nématodes, virus et viroïdes), soit de maladies causées par des facteurs abiotiques (désordres physiologiques, carences nutritionnelles, etc.).
-De nouvelles variétés ont été créées qui sont plus résistantes à certaines maladiesou aux virus tels que le Bremia, le Fusarium, LMV, BWYV, TuMV[1].
+De nouvelles variétés ont été créées qui sont plus résistantes à certaines maladiesou aux virus tels que le Bremia, le Fusarium, LMV, BWYV, TuMV.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -565,6 +581,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -591,6 +609,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -617,6 +637,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
